--- a/Literature/Map1.xlsx
+++ b/Literature/Map1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosa Maessen\Documents\Master\Jaar 2\Graduation project\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/42c75d1722a21a38/Documents/Graduation Project/Thesis/Literature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7079C838-2F41-4586-800D-935B307A0A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{7079C838-2F41-4586-800D-935B307A0A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A376507-6E88-40E5-AA0E-6E2E4B5933F1}"/>
   <bookViews>
-    <workbookView xWindow="21300" yWindow="2580" windowWidth="7500" windowHeight="6000" xr2:uid="{6B94306A-477A-4372-B4C8-56C22236B0FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6B94306A-477A-4372-B4C8-56C22236B0FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Methods" sheetId="2" r:id="rId1"/>
-    <sheet name="Blad1" sheetId="1" r:id="rId2"/>
-    <sheet name="Blad3" sheetId="3" r:id="rId3"/>
+    <sheet name="Blad3" sheetId="3" r:id="rId2"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -509,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DF06D3-9DB7-474A-89A1-2D917DF53163}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -640,77 +640,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AB9497-1BC4-4D55-A80C-185F69833DD2}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6597929-C73C-4B98-BC28-6A8F56A34765}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -744,4 +673,75 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AB9497-1BC4-4D55-A80C-185F69833DD2}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>